--- a/misc/Camera&StreamDeets.xlsx
+++ b/misc/Camera&StreamDeets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nqtenpincomau.sharepoint.com/NQ Tenpin/01. NQ Tenpin Atherton/_100. Project IT Work/_001. Projects/StreamPortal/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{EFF3F9D9-EC6B-482D-9944-EFB8E84F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81B12834-701D-4039-A75D-EC5FF4AADD37}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{EFF3F9D9-EC6B-482D-9944-EFB8E84F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF34EF0-0296-4641-8822-23779B9A1328}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60654F41-A5DB-4FF3-B4E7-6370619A731D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{60654F41-A5DB-4FF3-B4E7-6370619A731D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
-  <si>
-    <t>https://youtube.com/live/eGqILtcFJgc?feature=share</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Lane Pair</t>
   </si>
@@ -80,15 +78,6 @@
     <t>23&amp;24</t>
   </si>
   <si>
-    <t>https://youtube.com/live/ioJQxWoR0OI?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/jc9pTRi_kto?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/vB6qm6VsbQc?feature=share</t>
-  </si>
-  <si>
     <t>https://youtube.com/live/GdCCYfIVFfk?feature=share</t>
   </si>
   <si>
@@ -104,27 +93,6 @@
     <t>StreamKey</t>
   </si>
   <si>
-    <t>https://youtube.com/live/e38ENIpP7bk?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/6EA399KcNYo?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/xjTYBPIuvZM?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/TxTkHjtSDmc?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/k3j_hB41KCg?feature=share</t>
-  </si>
-  <si>
-    <t>https://youtube.com/live/2Vsjkvl0bj4?feature=share</t>
-  </si>
-  <si>
-    <t>fjbt-p644-5954-sk88-7ywf</t>
-  </si>
-  <si>
     <t>tt4t-bpk9-93ur-8swg-57t6</t>
   </si>
   <si>
@@ -137,18 +105,12 @@
     <t>rv13-de8m-gtpa-pgh1-15gy</t>
   </si>
   <si>
-    <t>112h-mzgc-9b1b-31bh-208u</t>
-  </si>
-  <si>
     <t>t869-1rzd-kdeb-awvq-d3g4</t>
   </si>
   <si>
     <t>4d1d-j8f1-tk0j-krpx-000c</t>
   </si>
   <si>
-    <t>2u4t-3srd-05j4-ed4v-bzj8</t>
-  </si>
-  <si>
     <t>x27w-pvhr-aam2-xxrf-agvm</t>
   </si>
   <si>
@@ -219,6 +181,45 @@
   </si>
   <si>
     <t>EC71DBE19F17</t>
+  </si>
+  <si>
+    <t>kuw3-3tpe-jm3j-rby6-7zt6</t>
+  </si>
+  <si>
+    <t>22ut-cgvg-v456-d2jh-ejqc</t>
+  </si>
+  <si>
+    <t>urak-e4c6-zve9-7gz9-6e2t</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/8-5mNl51oVg?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/BftvUAVcoio?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/CXAGuGVrzEQ?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/Q5ZLLOpGL7U?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/SM-ohlQSZGQ?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/dB0JdLKeQu4?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/dLLphv3ZGNQ?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/eXHX3tJUbHU?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/kOe9rDOXseg?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/m33xXMvwoKc?feature=share</t>
   </si>
 </sst>
 </file>
@@ -601,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D50B9-EC02-4A33-87B4-07B695361FBC}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A14 D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,355 +620,355 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>TRIM(MID(SUBSTITUTE(SUBSTITUTE(B3,"https://youtube.com/live/",""),"?feature=share",""),1,50))</f>
-        <v>ioJQxWoR0OI</v>
+        <v>SM-ohlQSZGQ</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C14" si="0">TRIM(MID(SUBSTITUTE(SUBSTITUTE(B4,"https://youtube.com/live/",""),"?feature=share",""),1,50))</f>
-        <v>jc9pTRi_kto</v>
+        <v>BftvUAVcoio</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>vB6qm6VsbQc</v>
+        <v>CXAGuGVrzEQ</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GdCCYfIVFfk</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>wv87wITIeT0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>e38ENIpP7bk</v>
+        <v>eXHX3tJUbHU</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>6EA399KcNYo</v>
+        <v>dLLphv3ZGNQ</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xjTYBPIuvZM</v>
+        <v>m33xXMvwoKc</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TxTkHjtSDmc</v>
+        <v>8-5mNl51oVg</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>k3j_hB41KCg</v>
+        <v>kOe9rDOXseg</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2Vsjkvl0bj4</v>
+        <v>dB0JdLKeQu4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>eGqILtcFJgc</v>
+        <v>Q5ZLLOpGL7U</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -976,16 +977,122 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFF4F2F-A404-4F86-846D-22D0CC7E49A5}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c487d0a5-7f10-4b8b-89c3-601eed436446">
@@ -994,6 +1101,15 @@
     <TaxCatchAll xmlns="30b70523-1c47-4c4d-aab4-989766bda4ae" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,20 +1374,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAFD42E-D9AA-44E2-9002-F2A8478447F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E73F0D-B23C-4295-AA3A-9A79EEFBEC88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c487d0a5-7f10-4b8b-89c3-601eed436446"/>
     <ds:schemaRef ds:uri="30b70523-1c47-4c4d-aab4-989766bda4ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAFD42E-D9AA-44E2-9002-F2A8478447F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/misc/Camera&StreamDeets.xlsx
+++ b/misc/Camera&StreamDeets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nqtenpincomau.sharepoint.com/NQ Tenpin/01. NQ Tenpin Atherton/_100. Project IT Work/_001. Projects/StreamPortal/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{EFF3F9D9-EC6B-482D-9944-EFB8E84F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF34EF0-0296-4641-8822-23779B9A1328}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{EFF3F9D9-EC6B-482D-9944-EFB8E84F0256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8054A22-FB89-474F-9F12-92A24DDF71B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{60654F41-A5DB-4FF3-B4E7-6370619A731D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60654F41-A5DB-4FF3-B4E7-6370619A731D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>https://youtube.com/live/8-5mNl51oVg?feature=share</t>
   </si>
   <si>
-    <t>https://youtube.com/live/BftvUAVcoio?feature=share</t>
-  </si>
-  <si>
     <t>https://youtube.com/live/CXAGuGVrzEQ?feature=share</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>https://youtube.com/live/m33xXMvwoKc?feature=share</t>
+  </si>
+  <si>
+    <t>https://youtube.com/live/tVWvpPPXLLA</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D50B9-EC02-4A33-87B4-07B695361FBC}">
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A14 D3:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>TRIM(MID(SUBSTITUTE(SUBSTITUTE(B3,"https://youtube.com/live/",""),"?feature=share",""),1,50))</f>
@@ -667,11 +667,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C14" si="0">TRIM(MID(SUBSTITUTE(SUBSTITUTE(B4,"https://youtube.com/live/",""),"?feature=share",""),1,50))</f>
-        <v>BftvUAVcoio</v>
+        <v>tVWvpPPXLLA</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -751,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFF4F2F-A404-4F86-846D-22D0CC7E49A5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1093,26 +1093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c487d0a5-7f10-4b8b-89c3-601eed436446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="30b70523-1c47-4c4d-aab4-989766bda4ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8A655C328418C49923A1382DE40CEB9" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="447ed20f8074d4952178f710da30f38f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c487d0a5-7f10-4b8b-89c3-601eed436446" xmlns:ns3="30b70523-1c47-4c4d-aab4-989766bda4ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a08c2cc426fe75415d5ef76b7b946836" ns2:_="" ns3:_="">
     <xsd:import namespace="c487d0a5-7f10-4b8b-89c3-601eed436446"/>
@@ -1373,26 +1353,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E73F0D-B23C-4295-AA3A-9A79EEFBEC88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c487d0a5-7f10-4b8b-89c3-601eed436446"/>
-    <ds:schemaRef ds:uri="30b70523-1c47-4c4d-aab4-989766bda4ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAFD42E-D9AA-44E2-9002-F2A8478447F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c487d0a5-7f10-4b8b-89c3-601eed436446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="30b70523-1c47-4c4d-aab4-989766bda4ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57B746E-743C-4969-8214-FD068D9BC5EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1409,4 +1390,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAFD42E-D9AA-44E2-9002-F2A8478447F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E73F0D-B23C-4295-AA3A-9A79EEFBEC88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c487d0a5-7f10-4b8b-89c3-601eed436446"/>
+    <ds:schemaRef ds:uri="30b70523-1c47-4c4d-aab4-989766bda4ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>